--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -145,7 +145,7 @@
     <t>潼港分理处</t>
   </si>
   <si>
-    <t>东波支行</t>
+    <t>东波分理处</t>
   </si>
   <si>
     <t>益江分理处</t>
@@ -555,16 +555,16 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -575,16 +575,16 @@
         <v>160</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,16 +595,16 @@
         <v>140</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>0.89</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -615,16 +615,16 @@
         <v>120</v>
       </c>
       <c r="C5">
-        <v>154.8</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>1.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -635,19 +635,19 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>177.57</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>9.800000000000001</v>
       </c>
       <c r="F6">
-        <v>188.8</v>
+        <v>28.8</v>
       </c>
       <c r="G6">
-        <v>1.72</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,16 +658,16 @@
         <v>130</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -678,16 +678,16 @@
         <v>140</v>
       </c>
       <c r="C8">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>0.92</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,16 +698,16 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>78.12</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>1.06</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -718,16 +718,16 @@
         <v>160</v>
       </c>
       <c r="C10">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -738,16 +738,16 @@
         <v>130</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -758,16 +758,16 @@
         <v>110</v>
       </c>
       <c r="C12">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -778,16 +778,16 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>96.9157</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>0.97</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -798,16 +798,16 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -818,16 +818,16 @@
         <v>140</v>
       </c>
       <c r="C15">
-        <v>126.95</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>0.97</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -838,16 +838,16 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -858,16 +858,16 @@
         <v>55</v>
       </c>
       <c r="C17">
-        <v>102.3</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1.89</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -878,16 +878,16 @@
         <v>45</v>
       </c>
       <c r="C18">
-        <v>79.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -898,16 +898,16 @@
         <v>140</v>
       </c>
       <c r="C19">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -918,16 +918,16 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>1.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -938,16 +938,16 @@
         <v>70</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -958,16 +958,16 @@
         <v>70</v>
       </c>
       <c r="C22">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -978,16 +978,16 @@
         <v>50</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -998,16 +998,16 @@
         <v>70</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1018,16 +1018,16 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1038,16 +1038,16 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1058,16 +1058,16 @@
         <v>140</v>
       </c>
       <c r="C27">
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.66</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1078,16 +1078,16 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1098,16 +1098,16 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1118,16 +1118,16 @@
         <v>45</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1138,16 +1138,16 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1158,16 +1158,16 @@
         <v>70</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1178,16 +1178,16 @@
         <v>100</v>
       </c>
       <c r="C33">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1198,16 +1198,16 @@
         <v>80</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1238,16 +1238,16 @@
         <v>55</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1258,16 +1258,16 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1278,16 +1278,16 @@
         <v>70</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1300,6 +1300,9 @@
       <c r="C39">
         <v>-5</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="F39">
         <v>0</v>
       </c>
@@ -1332,16 +1335,16 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G41">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1352,16 +1355,16 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G42">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1372,16 +1375,16 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,16 +1395,16 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G44">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1412,16 +1415,16 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -575,16 +575,16 @@
         <v>160</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,16 +595,16 @@
         <v>140</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -615,16 +615,16 @@
         <v>120</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -635,7 +635,7 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>19</v>
@@ -678,7 +678,7 @@
         <v>140</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>14</v>
@@ -718,7 +718,7 @@
         <v>160</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>36</v>
@@ -758,16 +758,16 @@
         <v>110</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -778,7 +778,7 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>34</v>
@@ -798,7 +798,7 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>22</v>
@@ -818,16 +818,16 @@
         <v>140</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -838,7 +838,7 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -898,7 +898,7 @@
         <v>140</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -918,16 +918,16 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1078,16 +1078,16 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1198,7 +1198,7 @@
         <v>80</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1278,16 +1278,16 @@
         <v>70</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1298,16 +1298,16 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1335,7 +1335,7 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>12</v>
@@ -1375,7 +1375,7 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>

--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -555,16 +555,16 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -575,7 +575,7 @@
         <v>160</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -595,7 +595,7 @@
         <v>140</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -615,7 +615,7 @@
         <v>120</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>36</v>
@@ -678,16 +678,16 @@
         <v>140</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,16 +698,16 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -718,16 +718,16 @@
         <v>160</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -758,7 +758,7 @@
         <v>110</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -818,7 +818,7 @@
         <v>140</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -918,16 +918,16 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G20">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1078,16 +1078,16 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1278,16 +1278,16 @@
         <v>70</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1298,7 +1298,7 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1375,16 +1375,16 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:7">

--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -555,16 +555,16 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -575,16 +575,16 @@
         <v>160</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -615,16 +615,16 @@
         <v>120</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -678,16 +678,16 @@
         <v>140</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,7 +698,7 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -718,7 +718,7 @@
         <v>160</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>46</v>
@@ -738,16 +738,16 @@
         <v>130</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -778,16 +778,16 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -818,16 +818,16 @@
         <v>140</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -898,16 +898,16 @@
         <v>140</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -918,7 +918,7 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>29</v>
@@ -1058,16 +1058,16 @@
         <v>140</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G27">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1078,7 +1078,7 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>30</v>
@@ -1178,16 +1178,16 @@
         <v>100</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1278,7 +1278,7 @@
         <v>70</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1375,16 +1375,16 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G43">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:7">

--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -555,16 +555,16 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -575,16 +575,16 @@
         <v>160</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G3">
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,16 +595,16 @@
         <v>140</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>9.800000000000001</v>
       </c>
       <c r="F6">
-        <v>28.8</v>
+        <v>32.8</v>
       </c>
       <c r="G6">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,16 +658,16 @@
         <v>130</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -678,16 +678,16 @@
         <v>140</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,16 +698,16 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -718,16 +718,16 @@
         <v>160</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G10">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -738,16 +738,16 @@
         <v>130</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -778,16 +778,16 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F13">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G13">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -798,16 +798,16 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -918,16 +918,16 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G20">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -958,16 +958,16 @@
         <v>70</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1018,16 +1018,16 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G25">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G27">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1078,16 +1078,16 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G30">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G33">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1201,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1238,16 +1238,16 @@
         <v>55</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G36">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1278,7 +1278,7 @@
         <v>70</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1355,16 +1355,16 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G42">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1375,16 +1375,16 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G43">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:7">

--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -552,19 +552,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>116.666666666667</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,19 +575,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -592,19 +598,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -612,19 +621,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>108.333333333333</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -632,22 +644,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>110</v>
+        <v>108.333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>32.8</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -655,19 +667,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -675,19 +690,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>140</v>
+        <v>116.666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -695,19 +713,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -715,19 +736,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>160</v>
+        <v>166.666666666667</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -735,19 +759,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>116.666666666667</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -755,19 +782,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -775,19 +805,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>116.666666666667</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -795,19 +828,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -815,19 +851,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -835,19 +874,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>108.333333333333</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -855,19 +897,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -875,19 +920,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -895,19 +943,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -915,19 +966,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -935,19 +989,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -955,19 +1012,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -975,19 +1035,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -995,12 +1058,15 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
@@ -1015,19 +1081,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1038,16 +1107,19 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1055,19 +1127,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1075,19 +1150,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1095,19 +1173,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1115,19 +1196,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1135,19 +1219,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1155,12 +1242,15 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
@@ -1175,19 +1265,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1195,19 +1288,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1221,13 +1317,16 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G35">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1235,19 +1334,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1255,19 +1357,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1275,19 +1380,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>70</v>
+        <v>79.1666666666667</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1295,19 +1403,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1315,16 +1426,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1332,19 +1449,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>50</v>
+        <v>79.1666666666667</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1352,19 +1472,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>55</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1372,19 +1495,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G43">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1398,13 +1524,16 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1412,12 +1541,15 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">

--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -555,19 +555,19 @@
         <v>116.666666666667</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -578,19 +578,19 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -601,19 +601,19 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G4">
-        <v>0.21</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -627,16 +627,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -647,19 +647,19 @@
         <v>108.333333333333</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -670,19 +670,19 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>0.23</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -739,19 +739,19 @@
         <v>166.666666666667</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -762,19 +762,19 @@
         <v>116.666666666667</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -808,19 +808,19 @@
         <v>116.666666666667</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -831,19 +831,19 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -854,19 +854,19 @@
         <v>125</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -900,7 +900,7 @@
         <v>75</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>13</v>
@@ -946,19 +946,19 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -969,19 +969,19 @@
         <v>75</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G20">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -992,19 +992,19 @@
         <v>83.3333333333333</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1015,19 +1015,19 @@
         <v>91.6666666666667</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1087,16 +1087,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1110,16 +1110,16 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1130,19 +1130,19 @@
         <v>100</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1153,19 +1153,19 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1225,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1245,19 +1245,19 @@
         <v>75</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1360,19 +1360,19 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1455,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G41">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1478,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1498,19 +1498,19 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G43">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1521,19 +1521,19 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G44">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/result/网点鑫e贷放款2.0.xlsx
+++ b/result/网点鑫e贷放款2.0.xlsx
@@ -555,7 +555,7 @@
         <v>116.666666666667</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -578,16 +578,16 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>0.25</v>
@@ -647,7 +647,7 @@
         <v>108.333333333333</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>24</v>
@@ -670,19 +670,19 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -716,19 +716,19 @@
         <v>83.3333333333333</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -739,7 +739,7 @@
         <v>166.666666666667</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>89</v>
@@ -762,7 +762,7 @@
         <v>116.666666666667</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -808,19 +808,19 @@
         <v>116.666666666667</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -831,7 +831,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -854,19 +854,19 @@
         <v>125</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -946,19 +946,19 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -969,19 +969,19 @@
         <v>75</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1015,19 +1015,19 @@
         <v>91.6666666666667</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1107,7 +1107,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1153,7 +1153,7 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>40</v>
@@ -1245,19 +1245,19 @@
         <v>75</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>-18</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1268,19 +1268,19 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G33">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1452,19 +1452,19 @@
         <v>79.1666666666667</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G41">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1521,7 +1521,7 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>25</v>
